--- a/data/trans_dic/P16A10-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04018498266589036</v>
+        <v>0.03976843458532873</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03367584053120841</v>
+        <v>0.03320225505943709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04751208147715677</v>
+        <v>0.04810673498776485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05316884967406701</v>
+        <v>0.05161255349519894</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03609186268060215</v>
+        <v>0.03689294999392207</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04053585978672709</v>
+        <v>0.04142578604353915</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04847617186057551</v>
+        <v>0.04924232056652718</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05598771811293422</v>
+        <v>0.05559872375339383</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04290531879102041</v>
+        <v>0.0430130975365738</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04176265003522987</v>
+        <v>0.04095077557807199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05401092876767155</v>
+        <v>0.05375254673820849</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05941324385698771</v>
+        <v>0.05808945677323615</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07537327490710719</v>
+        <v>0.07361741788158985</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06811477123170639</v>
+        <v>0.06799633355743707</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08644966124850899</v>
+        <v>0.08479737036816974</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08728662594090461</v>
+        <v>0.08576962468860333</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07174612193868042</v>
+        <v>0.07178255098137187</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07834165588000488</v>
+        <v>0.07733129397182303</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08993978882003729</v>
+        <v>0.09212491996643164</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0870982396367582</v>
+        <v>0.08617815006986039</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06623227268905671</v>
+        <v>0.06695851378364953</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06687734698186257</v>
+        <v>0.06524629642286268</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08150113944214364</v>
+        <v>0.08210538067576426</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0830350656818703</v>
+        <v>0.08140944500033256</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.05713779745552902</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04077792822808436</v>
+        <v>0.04077792822808435</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.05395406358563782</v>
@@ -833,7 +833,7 @@
         <v>0.05400870749835351</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04374075605498523</v>
+        <v>0.04374075605498522</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04666009120363736</v>
+        <v>0.04537392618233237</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03605013714365619</v>
+        <v>0.03517468260493117</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04382923339114839</v>
+        <v>0.04380950093606151</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03111917073629396</v>
+        <v>0.03158875316436967</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04057168539276173</v>
+        <v>0.04136679214939213</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03507394535001302</v>
+        <v>0.03713229899804626</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03748636222273036</v>
+        <v>0.03600697095400643</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03670698524660927</v>
+        <v>0.03761257774933807</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04676827257581544</v>
+        <v>0.04780494540449805</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03909923379880281</v>
+        <v>0.03935672287162659</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04284544003788178</v>
+        <v>0.04473580907061189</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03659550732209824</v>
+        <v>0.03689916876556468</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07603311368577187</v>
+        <v>0.07622477544502852</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06495389035269046</v>
+        <v>0.06359658676882271</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07216197243552774</v>
+        <v>0.07280627640682789</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05296574346372409</v>
+        <v>0.05375693151329931</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07013392534691977</v>
+        <v>0.07010079089094258</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06279676914793546</v>
+        <v>0.06402772602854402</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06826123106511368</v>
+        <v>0.06651474163678246</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05747383392966338</v>
+        <v>0.05751040316047878</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06891404957880279</v>
+        <v>0.0679639429247236</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0592218153309749</v>
+        <v>0.05989518838595138</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06533716083907432</v>
+        <v>0.06596119120602152</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05119934061315175</v>
+        <v>0.05183521660653887</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.06193462541760111</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06383900334091357</v>
+        <v>0.06383900334091358</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04922345960151692</v>
@@ -969,7 +969,7 @@
         <v>0.05939481283747238</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05367080848671285</v>
+        <v>0.05367080848671284</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03988805060507424</v>
+        <v>0.03970173461526074</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03294155945969979</v>
+        <v>0.03446672429902424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04425101768063247</v>
+        <v>0.04631396370165605</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04879724241069875</v>
+        <v>0.04830865495578263</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03504119715433809</v>
+        <v>0.03465147129547453</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.023533593856125</v>
+        <v>0.02381502968396972</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04303572633488529</v>
+        <v>0.04213613103607143</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03316954132028754</v>
+        <v>0.03219688325732263</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04081547678920962</v>
+        <v>0.0395255848682734</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03243459243007731</v>
+        <v>0.03230492452254827</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04861741106615056</v>
+        <v>0.04745500316646435</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0448776455240342</v>
+        <v>0.04398275950755007</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07473528837282237</v>
+        <v>0.07492436023388641</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06646187807596952</v>
+        <v>0.06541704144726544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.080721777363187</v>
+        <v>0.08120855492638905</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08291392081444031</v>
+        <v>0.08104710120070939</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06892698357286373</v>
+        <v>0.06707645169147634</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05359039801445808</v>
+        <v>0.05174859332126865</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07937927621077638</v>
+        <v>0.07661636093796846</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05616959457414674</v>
+        <v>0.05546624805627901</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06493737298926187</v>
+        <v>0.06411418757697381</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05306664655144756</v>
+        <v>0.0532000014841552</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07321023058965825</v>
+        <v>0.07158607725496287</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06633458421200976</v>
+        <v>0.0649237199271066</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.05754443104076754</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06382539808161833</v>
+        <v>0.06382539808161831</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05524448897285056</v>
@@ -1105,7 +1105,7 @@
         <v>0.05133893250260367</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05979105254996396</v>
+        <v>0.05979105254996399</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0356488834652953</v>
+        <v>0.03586763252389182</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04975326817206743</v>
+        <v>0.04918706412103965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04335822955397964</v>
+        <v>0.04411099186692766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05180585918018641</v>
+        <v>0.05100516936834439</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04203960973765067</v>
+        <v>0.04169087126797578</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03784247619423139</v>
+        <v>0.03799091329066749</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03367189275080787</v>
+        <v>0.03338461517033809</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04580450626577064</v>
+        <v>0.04592824158920174</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04165399239266493</v>
+        <v>0.04144778346337183</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04805515179414872</v>
+        <v>0.04736553677116157</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04185581432473417</v>
+        <v>0.04210901084487335</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05169900468518777</v>
+        <v>0.0513126030322399</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0621501378787011</v>
+        <v>0.06133329159130155</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0833269890623711</v>
+        <v>0.08177335824365581</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07541386183067532</v>
+        <v>0.07474635088621767</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07871724827785048</v>
+        <v>0.07913782975398226</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0706026633476375</v>
+        <v>0.07142052690312992</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06636692379822713</v>
+        <v>0.06587540328868624</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06229235919404013</v>
+        <v>0.06268828566379506</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06750045216385295</v>
+        <v>0.06697354004909269</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06180950815536257</v>
+        <v>0.06153171804433401</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06871559648086588</v>
+        <v>0.06838411263096296</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06188281053606141</v>
+        <v>0.06260774874855901</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06867959960266362</v>
+        <v>0.06802041679884492</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.05388117087495888</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.05328229610739405</v>
+        <v>0.05328229610739404</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.05353354556355526</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04701473760902383</v>
+        <v>0.04647995210003563</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04502497499572403</v>
+        <v>0.04544814033705339</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05205982256876356</v>
+        <v>0.05224068825749241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05092877560751885</v>
+        <v>0.05136723651055457</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04564337302289133</v>
+        <v>0.04608203556340804</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04183017457217149</v>
+        <v>0.04168181964496705</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04598019206020279</v>
+        <v>0.0461056595878053</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04786084518390744</v>
+        <v>0.04732481572855537</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04796178708258186</v>
+        <v>0.04817304363647343</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04494774127067262</v>
+        <v>0.04551933752117942</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05102907691682794</v>
+        <v>0.05126600867880824</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05063851515737276</v>
+        <v>0.05102124525646379</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06197690694846397</v>
+        <v>0.06262788442612696</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06077608485426605</v>
+        <v>0.06138974272855036</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06865452163784481</v>
+        <v>0.06800057011418693</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06507268869030432</v>
+        <v>0.06547926145113234</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06124516687195319</v>
+        <v>0.06276424115038762</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05534014423076206</v>
+        <v>0.05617083264478458</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06239024958886035</v>
+        <v>0.06234919574456235</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05940008078495942</v>
+        <v>0.05922947699358394</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05871641829492615</v>
+        <v>0.05952064703266779</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05573682442305803</v>
+        <v>0.05602626753457222</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06276412468613551</v>
+        <v>0.06239197226252492</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06031684192540772</v>
+        <v>0.06023362422898087</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27848</v>
+        <v>27559</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23626</v>
+        <v>23294</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>32061</v>
+        <v>32462</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36724</v>
+        <v>35649</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>24844</v>
+        <v>25395</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>28213</v>
+        <v>28833</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>32617</v>
+        <v>33132</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>41045</v>
+        <v>40760</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>59267</v>
+        <v>59416</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>58367</v>
+        <v>57232</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>72787</v>
+        <v>72439</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>84594</v>
+        <v>82709</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>52233</v>
+        <v>51016</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>47788</v>
+        <v>47705</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>58336</v>
+        <v>57221</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>60290</v>
+        <v>59242</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>49387</v>
+        <v>49412</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>54526</v>
+        <v>53823</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>60515</v>
+        <v>61985</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>63853</v>
+        <v>63178</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>91490</v>
+        <v>92493</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>93467</v>
+        <v>91187</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>109834</v>
+        <v>110648</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>118227</v>
+        <v>115913</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>44878</v>
+        <v>43641</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36697</v>
+        <v>35806</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>44812</v>
+        <v>44792</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>32641</v>
+        <v>33134</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>39289</v>
+        <v>40059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>36090</v>
+        <v>38208</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>39095</v>
+        <v>37552</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>39281</v>
+        <v>40250</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>90272</v>
+        <v>92273</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>80032</v>
+        <v>80559</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>88491</v>
+        <v>92395</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>77547</v>
+        <v>78191</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>73129</v>
+        <v>73313</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>66120</v>
+        <v>64738</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>73781</v>
+        <v>74439</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>55557</v>
+        <v>56387</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>67917</v>
+        <v>67885</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>64615</v>
+        <v>65882</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>71191</v>
+        <v>69369</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>61504</v>
+        <v>61543</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>133017</v>
+        <v>131184</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>121221</v>
+        <v>122600</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>134944</v>
+        <v>136233</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>108494</v>
+        <v>109841</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>27064</v>
+        <v>26938</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24922</v>
+        <v>26075</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>33611</v>
+        <v>35178</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>39140</v>
+        <v>38748</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>23963</v>
+        <v>23696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18245</v>
+        <v>18464</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>33784</v>
+        <v>33077</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>26922</v>
+        <v>26133</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>55605</v>
+        <v>53848</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>49684</v>
+        <v>49486</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>75093</v>
+        <v>73297</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>72421</v>
+        <v>70977</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>50709</v>
+        <v>50837</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>50281</v>
+        <v>49490</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61312</v>
+        <v>61682</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>66504</v>
+        <v>65007</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>47135</v>
+        <v>45870</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41548</v>
+        <v>40120</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>62314</v>
+        <v>60145</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>45591</v>
+        <v>45020</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>88467</v>
+        <v>87346</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>81289</v>
+        <v>81493</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>113078</v>
+        <v>110569</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>107047</v>
+        <v>104771</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>33589</v>
+        <v>33795</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46964</v>
+        <v>46430</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40651</v>
+        <v>41357</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>51291</v>
+        <v>50498</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>43663</v>
+        <v>43301</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>39694</v>
+        <v>39849</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>35146</v>
+        <v>34846</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>51165</v>
+        <v>51303</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>82510</v>
+        <v>82101</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>95767</v>
+        <v>94393</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>82931</v>
+        <v>83433</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>108935</v>
+        <v>108120</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>58559</v>
+        <v>57790</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>78656</v>
+        <v>77189</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>70706</v>
+        <v>70080</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>77935</v>
+        <v>78351</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>73329</v>
+        <v>74178</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>69613</v>
+        <v>69098</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>65019</v>
+        <v>65433</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>75400</v>
+        <v>74812</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>122434</v>
+        <v>121884</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>136940</v>
+        <v>136280</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>122611</v>
+        <v>124048</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>144714</v>
+        <v>143325</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>153998</v>
+        <v>152246</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>153986</v>
+        <v>155433</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>176709</v>
+        <v>177323</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>179869</v>
+        <v>181418</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>154238</v>
+        <v>155720</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>148462</v>
+        <v>147936</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>162979</v>
+        <v>163423</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>178613</v>
+        <v>176613</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>319172</v>
+        <v>320578</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>313249</v>
+        <v>317232</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>354085</v>
+        <v>355729</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>367823</v>
+        <v>370603</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>203007</v>
+        <v>205139</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>207854</v>
+        <v>209953</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>233037</v>
+        <v>230818</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>229822</v>
+        <v>231258</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>206959</v>
+        <v>212093</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>196412</v>
+        <v>199360</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>221145</v>
+        <v>220999</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>221677</v>
+        <v>221040</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>390741</v>
+        <v>396093</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>388440</v>
+        <v>390457</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>435513</v>
+        <v>432931</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>438124</v>
+        <v>437519</v>
       </c>
     </row>
     <row r="24">
